--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pushpakumara\Wixis\SeleniumPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F69615C-847A-4FEC-A6F0-DF67CB1DDD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A8CD7-0CB2-4B98-9500-AC40D81273F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{86567C19-26A9-4FE7-B82C-D33E6678779C}"/>
   </bookViews>
@@ -323,17 +323,17 @@
     <t>https://www.facebook.com/canadianpetconnection/</t>
   </si>
   <si>
-    <t>https://m.facebook.com/profile.php?id=1444241982547660</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/roccoslk/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=1444241982547660</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +380,19 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.249977111117893"/>
+      <name val="Iskoola Pota"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Iskoola Pota"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,6 +464,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -768,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E35F5B8-7979-42E8-9CCD-00F2D55224C9}">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,17 +827,17 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -858,7 +877,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -943,7 +962,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -973,7 +992,7 @@
       </c>
     </row>
     <row r="40" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1189,7 +1208,7 @@
       </c>
     </row>
     <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1199,7 +1218,7 @@
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1229,7 +1248,7 @@
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1269,13 +1288,13 @@
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>96</v>
+      <c r="A100" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pushpakumara\Wixis\SeleniumPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A8CD7-0CB2-4B98-9500-AC40D81273F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B874399-0F1B-4A66-B39B-85D71653E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{86567C19-26A9-4FE7-B82C-D33E6678779C}"/>
+    <workbookView xWindow="7050" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{86567C19-26A9-4FE7-B82C-D33E6678779C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>FB URL</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>https://www.facebook.com/profile.php?id=1444241982547660</t>
+  </si>
+  <si>
+    <t>page not available</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>scrolling</t>
+  </si>
+  <si>
+    <t>different</t>
   </si>
 </sst>
 </file>
@@ -398,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +426,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -470,6 +506,22 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E35F5B8-7979-42E8-9CCD-00F2D55224C9}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" activeCellId="1" sqref="A28:A34 A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,237 +854,245 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1116,80 +1176,83 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>78</v>
       </c>
@@ -1258,7 +1321,7 @@
       </c>
     </row>
     <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1268,31 +1331,34 @@
       </c>
     </row>
     <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>96</v>
       </c>
